--- a/text/曳引驱动电梯（有机房）.xlsx
+++ b/text/曳引驱动电梯（有机房）.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="194">
   <si>
     <t>序号</t>
   </si>
@@ -642,12 +641,24 @@
     <t>wbbz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>悬挂装置类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝绳/钢带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgzzlx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -689,6 +700,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -717,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,14 +777,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1096,10 +1137,10 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1107,10 +1148,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>155</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1121,34 +1162,34 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1159,10 +1200,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>178</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1170,34 +1211,34 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1205,37 +1246,37 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>163</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1243,36 +1284,36 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>164</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1280,10 +1321,10 @@
       </c>
     </row>
     <row r="21" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>182</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1291,10 +1332,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>183</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1302,31 +1343,31 @@
       </c>
     </row>
     <row r="23" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1334,7 +1375,7 @@
       </c>
     </row>
     <row r="27" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1342,7 +1383,7 @@
       </c>
     </row>
     <row r="28" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1350,7 +1391,7 @@
       </c>
     </row>
     <row r="29" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1358,7 +1399,7 @@
       </c>
     </row>
     <row r="30" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1366,7 +1407,7 @@
       </c>
     </row>
     <row r="31" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1374,7 +1415,7 @@
       </c>
     </row>
     <row r="32" spans="3:6" ht="12.95" customHeight="1">
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:6" ht="12.95" customHeight="1">
@@ -1757,181 +1798,192 @@
     </row>
     <row r="71" spans="2:7" ht="12.95" customHeight="1">
       <c r="C71" s="4" t="s">
-        <v>116</v>
+        <v>191</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="12.95" customHeight="1">
       <c r="C72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="12.95" customHeight="1">
+      <c r="C73" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="12.95" customHeight="1"/>
-    <row r="74" spans="2:7" ht="12.95" customHeight="1">
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="2:7" ht="12.95" customHeight="1"/>
+    <row r="75" spans="2:7" ht="12.95" customHeight="1">
+      <c r="B75" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="12.95" customHeight="1">
-      <c r="C75" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="12.95" customHeight="1">
       <c r="C76" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="12.95" customHeight="1">
       <c r="C77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="12.95" customHeight="1">
+      <c r="C78" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="12.95" customHeight="1"/>
-    <row r="79" spans="2:7" ht="12.95" customHeight="1">
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="2:7" ht="12.95" customHeight="1"/>
+    <row r="80" spans="2:7" ht="12.95" customHeight="1">
+      <c r="B80" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="12.95" customHeight="1">
-      <c r="C80" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="12.95" customHeight="1">
       <c r="C81" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="12.95" customHeight="1">
       <c r="C82" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="12.95" customHeight="1">
       <c r="C83" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="12.95" customHeight="1">
+      <c r="C84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="12.95" customHeight="1"/>
-    <row r="85" spans="2:7" ht="12.95" customHeight="1">
-      <c r="B85" s="3" t="s">
+    <row r="85" spans="2:7" ht="12.95" customHeight="1"/>
+    <row r="86" spans="2:7" ht="12.95" customHeight="1">
+      <c r="B86" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="12.95" customHeight="1">
-      <c r="C86" s="4" t="s">
+    <row r="87" spans="2:7" ht="12.95" customHeight="1">
+      <c r="C87" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="12.95" customHeight="1"/>
-    <row r="88" spans="2:7" ht="12.95" customHeight="1">
-      <c r="B88" s="3" t="s">
+    <row r="88" spans="2:7" ht="12.95" customHeight="1"/>
+    <row r="89" spans="2:7" s="14" customFormat="1" ht="12.95" customHeight="1">
+      <c r="B89" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E89" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G89" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="12.95" customHeight="1"/>
+    <row r="90" spans="2:7" ht="12.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,13 +2015,13 @@
       <c r="B1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="12.95" customHeight="1">
       <c r="C2" s="6" t="s">
